--- a/11-Parameters/LhARABeamLine-Params-Gauss.xlsx
+++ b/11-Parameters/LhARABeamLine-Params-Gauss.xlsx
@@ -1,22 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ken.long/KL-GIT/CCAP/02-LhARA/04-LhARA_Beamline/11-Parameters/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ken.long/KL-GIT/CCAP/02-LhARA/04-LhARAlinearOptics/11-Parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597F1FAA-7B0B-D54F-9DAB-914B2B6237DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D323F660-06A6-FB40-9466-6711CCEF7598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5600" yWindow="3760" windowWidth="20600" windowHeight="14780" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11740" yWindow="640" windowWidth="18500" windowHeight="18900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="LhARABeamLine-Params-LsrDrvn" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -25,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="57">
   <si>
     <t>Parameter</t>
   </si>
@@ -54,94 +65,145 @@
     <t>Source</t>
   </si>
   <si>
-    <t>Mode</t>
-  </si>
-  <si>
     <t>SourceMode</t>
   </si>
   <si>
     <t>Gaussian kinetic energy</t>
   </si>
   <si>
-    <t>Mean energy</t>
+    <t>MeV</t>
+  </si>
+  <si>
+    <t>SigmaX</t>
+  </si>
+  <si>
+    <t>SigmaY</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Gaussian width, x</t>
+  </si>
+  <si>
+    <t>Gaussian width, y</t>
+  </si>
+  <si>
+    <t>Drift</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Length of first, compensated, drift</t>
+  </si>
+  <si>
+    <t>Circular</t>
+  </si>
+  <si>
+    <t>Inner bore of entry to nozzle</t>
+  </si>
+  <si>
+    <t>Inner bore of exit from nozzle</t>
+  </si>
+  <si>
+    <t>Aperture</t>
+  </si>
+  <si>
+    <t>MinCTheta</t>
+  </si>
+  <si>
+    <t>Facility</t>
+  </si>
+  <si>
+    <t>Global</t>
+  </si>
+  <si>
+    <t>Reference particle</t>
+  </si>
+  <si>
+    <t>Kinetic energy</t>
+  </si>
+  <si>
+    <t>LhARA</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Radius</t>
+  </si>
+  <si>
+    <t>Parameterised TNSA</t>
+  </si>
+  <si>
+    <t>Interface</t>
+  </si>
+  <si>
+    <t>Capture</t>
+  </si>
+  <si>
+    <t>Drift to solenoid</t>
+  </si>
+  <si>
+    <t>Solenoid</t>
+  </si>
+  <si>
+    <t>Length of solenoid</t>
+  </si>
+  <si>
+    <t>Length, strength</t>
+  </si>
+  <si>
+    <t>Strength</t>
+  </si>
+  <si>
+    <t>ks</t>
+  </si>
+  <si>
+    <t>rad/m</t>
+  </si>
+  <si>
+    <t>Drift out of solenoid</t>
+  </si>
+  <si>
+    <t>Drift to next solenoid</t>
+  </si>
+  <si>
+    <t>Energy selection</t>
+  </si>
+  <si>
+    <t>Space for first cavity, modelled as drift</t>
+  </si>
+  <si>
+    <t>Drift to energy-selection collimator</t>
+  </si>
+  <si>
+    <t>Space for energy-selection collimator</t>
+  </si>
+  <si>
+    <t>Space for energy-selection collimator?</t>
+  </si>
+  <si>
+    <t>Space for second cavity, modelled as drift</t>
+  </si>
+  <si>
+    <t>Matching</t>
+  </si>
+  <si>
+    <t>Collimator</t>
   </si>
   <si>
     <t>MeanEnergy</t>
   </si>
   <si>
-    <t>MeV</t>
-  </si>
-  <si>
     <t>Mean of guassian kinetic energy</t>
   </si>
   <si>
-    <t>Energy spread (sigma)</t>
-  </si>
-  <si>
     <t>SigmaEnergy</t>
   </si>
   <si>
     <t>Sigma of guassian kinetic energy</t>
-  </si>
-  <si>
-    <t>Sigma x</t>
-  </si>
-  <si>
-    <t>Sigma y</t>
-  </si>
-  <si>
-    <t>SigmaX</t>
-  </si>
-  <si>
-    <t>SigmaY</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>Gaussian width, x</t>
-  </si>
-  <si>
-    <t>Gaussian width, y</t>
-  </si>
-  <si>
-    <t>Drift</t>
-  </si>
-  <si>
-    <t>Length</t>
-  </si>
-  <si>
-    <t>Drift1Length</t>
-  </si>
-  <si>
-    <t>Length of first, compensated, drift</t>
-  </si>
-  <si>
-    <t>Drift2Length</t>
-  </si>
-  <si>
-    <t>Circular</t>
-  </si>
-  <si>
-    <t>Inner bore of entry to nozzle</t>
-  </si>
-  <si>
-    <t>Inner bore of exit from nozzle</t>
-  </si>
-  <si>
-    <t>Aperture</t>
-  </si>
-  <si>
-    <t>Radius1</t>
-  </si>
-  <si>
-    <t>Radius2</t>
-  </si>
-  <si>
-    <t>Minimum cos theta</t>
-  </si>
-  <si>
-    <t>MinCTheta</t>
   </si>
   <si>
     <t>Minimum theta for flat cos theta</t>
@@ -151,7 +213,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -174,6 +236,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -189,7 +257,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -201,10 +269,101 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -216,9 +375,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -226,12 +383,8 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -242,36 +395,6 @@
         <color indexed="64"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="dotted">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -283,15 +406,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -606,304 +739,1317 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="A1:H11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="5">
-        <v>1</v>
-      </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="A2" s="4">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="6">
+        <v>15</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="2">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="2">
+        <v>15</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.998</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="8">
+        <v>1</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="6" t="s">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>1</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="6">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="G3" s="6" t="s">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>1</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>1</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
-        <v>1</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="D13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="3">
+        <v>2.8700000000000002E-3</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="6">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="G4" s="6" t="s">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="10">
+        <v>1</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="10">
+        <v>1</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="10">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="10">
+        <v>1</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16">
+        <f>2.4916949087545</f>
+        <v>2.4916949087544999</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="10">
+        <v>1</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17">
+        <v>0.15</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="10">
+        <v>1</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18">
+        <v>0.15</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="10">
+        <v>1</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="10">
+        <v>1</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20">
+        <v>1.0187472612650501</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
+        <v>1</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="9">
+        <v>1</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="10">
+        <v>1</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="10">
+        <v>1</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="10">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="10"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="10">
+        <v>1</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="10">
+        <v>1.4485646330252</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" s="10"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="10">
+        <v>1</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="10">
+        <v>1</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="10">
+        <v>1.7709999999999999</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="10">
+        <v>1</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="10">
+        <v>1</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
-        <v>1</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="6">
-        <v>15</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
-        <v>1</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="6">
+      <c r="D29" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="10">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="10">
+        <v>1</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="10">
+        <v>1</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="10">
+        <v>6.4610000000000001E-2</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="10"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="10">
+        <v>1</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="10">
+        <v>0.13539000000000001</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="10"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="10">
+        <v>1</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="10">
+        <v>1</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" s="10">
+        <v>5.4600000000000003E-2</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" s="10"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="7">
+        <v>1</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="9">
+        <v>1</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="12"/>
+      <c r="E36" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="10">
+        <v>1</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" s="10">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" s="13"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="10">
+        <v>1</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F38">
+        <v>1.7888589662779599</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H38" s="13"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="10">
+        <v>1</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39">
+        <v>0.15</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="10">
+        <v>1</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40">
         <v>0.3</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
-        <v>1</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="G40" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" s="13"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="10">
+        <v>1</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41">
+        <v>0.15</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="10">
+        <v>1</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="6">
-        <v>0.998</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6" t="s">
+      <c r="E42" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" s="13"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="10">
+        <v>1</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" s="10" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
-        <v>1</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
-        <v>1</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="6">
-        <v>2E-3</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
-        <v>1</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
-        <v>1</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="F43">
+        <v>1.60433994066042</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H43" s="13"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="10">
+        <v>1</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44">
+        <v>0.15</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="10">
+        <v>1</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45">
+        <v>2.5</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H45" s="13"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="10">
+        <v>1</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F46">
+        <v>0.15</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="10">
+        <v>1</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="7">
-        <v>2.8700000000000002E-3</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>33</v>
+      <c r="D47" t="s">
+        <v>38</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" s="13"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="10">
+        <v>1</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D48" t="s">
+        <v>38</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F48">
+        <v>1.2448140165275099</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H48" s="13"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="10">
+        <v>1</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F49">
+        <v>0.15</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="10">
+        <v>1</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50">
+        <v>0.3</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H50" s="13"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="10">
+        <v>1</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F51">
+        <v>0.15</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H51" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="10">
+        <v>1</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D52" t="s">
+        <v>38</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H52" s="13"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="10">
+        <v>1</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D53" t="s">
+        <v>38</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F53">
+        <v>1.1659674896013299</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H53" s="13"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="7">
+        <v>1</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" s="11"/>
+      <c r="E54" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F54" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/11-Parameters/LhARABeamLine-Params-Gauss.xlsx
+++ b/11-Parameters/LhARABeamLine-Params-Gauss.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ken.long/KL-GIT/CCAP/02-LhARA/04-LhARAlinearOptics/11-Parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D323F660-06A6-FB40-9466-6711CCEF7598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E18A63-B430-624D-9E52-8FCACE8599E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11740" yWindow="640" windowWidth="18500" windowHeight="18900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="66">
   <si>
     <t>Parameter</t>
   </si>
@@ -207,13 +207,52 @@
   </si>
   <si>
     <t>Minimum theta for flat cos theta</t>
+  </si>
+  <si>
+    <t>Arc</t>
+  </si>
+  <si>
+    <t>Dipole</t>
+  </si>
+  <si>
+    <t>Sector (Length, angle)</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>degrees</t>
+  </si>
+  <si>
+    <t>Dquad</t>
+  </si>
+  <si>
+    <t>kq</t>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-2</t>
+    </r>
+  </si>
+  <si>
+    <t>Fquad</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -237,6 +276,13 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -739,10 +785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2052,6 +2098,635 @@
         <v>42</v>
       </c>
     </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="10">
+        <v>1</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F55" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H55" s="10"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="10">
+        <v>1</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F56" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H56" s="10"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="10">
+        <v>1</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F57" s="10">
+        <v>45</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H57" s="10"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="10">
+        <v>1</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F58" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H58" s="10"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="10">
+        <v>1</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F59" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H59" s="10"/>
+    </row>
+    <row r="60" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+      <c r="A60" s="10">
+        <v>1</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F60" s="10">
+        <v>22.544</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H60" s="10"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="10">
+        <v>1</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F61" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H61" s="10"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="10">
+        <v>1</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F62" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H62" s="10"/>
+    </row>
+    <row r="63" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+      <c r="A63" s="10">
+        <v>1</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F63" s="10">
+        <v>31.376799999999999</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H63" s="10"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="10">
+        <v>1</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F64" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="G64" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H64" s="10"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="10">
+        <v>1</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F65" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="G65" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H65" s="10"/>
+    </row>
+    <row r="66" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+      <c r="A66" s="10">
+        <v>1</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F66" s="10">
+        <v>31.5123</v>
+      </c>
+      <c r="G66" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H66" s="10"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="10">
+        <v>1</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F67" s="10">
+        <f>0.2-0.005</f>
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="G67" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H67" s="10"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="10">
+        <v>1</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F68" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="G68" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H68" s="10"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="10">
+        <v>1</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F69" s="10">
+        <f>0.2-0.005</f>
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="G69" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H69" s="10"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="10">
+        <v>1</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F70" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="G70" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H70" s="10"/>
+    </row>
+    <row r="71" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+      <c r="A71" s="10">
+        <v>1</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F71" s="10">
+        <f>F66</f>
+        <v>31.5123</v>
+      </c>
+      <c r="G71" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H71" s="10"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="10">
+        <v>1</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F72" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="G72" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H72" s="10"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" s="10">
+        <v>1</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F73" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="G73" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H73" s="10"/>
+    </row>
+    <row r="74" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+      <c r="A74" s="10">
+        <v>1</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F74" s="10">
+        <f>F63</f>
+        <v>31.376799999999999</v>
+      </c>
+      <c r="G74" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H74" s="10"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="10">
+        <v>1</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F75" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="G75" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H75" s="10"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" s="10">
+        <v>1</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F76" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="G76" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H76" s="10"/>
+    </row>
+    <row r="77" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+      <c r="A77" s="10">
+        <v>1</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F77" s="10">
+        <f>F60</f>
+        <v>22.544</v>
+      </c>
+      <c r="G77" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H77" s="10"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" s="10">
+        <v>1</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F78" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="G78" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H78" s="10"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" s="10">
+        <v>1</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F79" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="G79" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H79" s="10"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" s="10">
+        <v>1</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E80" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F80" s="10">
+        <v>45</v>
+      </c>
+      <c r="G80" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H80" s="10"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" s="10">
+        <v>1</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F81" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="G81" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H81" s="10"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" s="7">
+        <v>1</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F82" s="7">
+        <v>2</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H82" s="7"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/11-Parameters/LhARABeamLine-Params-Gauss.xlsx
+++ b/11-Parameters/LhARABeamLine-Params-Gauss.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ken.long/KL-GIT/CCAP/02-LhARA/04-LhARAlinearOptics/11-Parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E18A63-B430-624D-9E52-8FCACE8599E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9418DD1-EED8-634A-BE89-4FB50BF153F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11740" yWindow="640" windowWidth="18500" windowHeight="18900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="68">
   <si>
     <t>Parameter</t>
   </si>
@@ -120,9 +120,6 @@
   </si>
   <si>
     <t>Reference particle</t>
-  </si>
-  <si>
-    <t>Kinetic energy</t>
   </si>
   <si>
     <t>LhARA</t>
@@ -246,6 +243,15 @@
   </si>
   <si>
     <t>Fquad</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Vacuum chamber</t>
+  </si>
+  <si>
+    <t>Mother volume radius</t>
   </si>
 </sst>
 </file>
@@ -452,7 +458,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -471,6 +477,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -785,10 +795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H82"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D94" sqref="D94"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -814,7 +824,7 @@
         <v>7</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>0</v>
@@ -846,58 +856,58 @@
         <v>1</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
+      <c r="A3" s="16">
         <v>0</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="6">
+      <c r="E3" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="17">
         <v>15</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="6"/>
+      <c r="H3" s="16"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A4" s="6">
+        <v>0</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
@@ -910,19 +920,17 @@
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="2">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>15</v>
+        <v>31</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -936,10 +944,10 @@
         <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" s="2">
         <v>3.9999999999999998E-6</v>
@@ -948,7 +956,7 @@
         <v>14</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -962,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="F7" s="2">
-        <v>15</v>
+        <v>3.9999999999999998E-6</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -988,93 +996,93 @@
         <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F8" s="2">
-        <v>0.3</v>
+        <v>15</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H8" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.998</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>1</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="3" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="8">
+        <v>1</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0.998</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
-        <v>1</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="8">
+      <c r="C11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="8">
         <v>0.05</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="8" t="s">
+      <c r="G11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="8" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>1</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="2">
-        <v>2E-3</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -1082,72 +1090,75 @@
         <v>1</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="E12" s="2" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>1</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="2">
         <v>0.05</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="2" t="s">
+      <c r="G13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>1</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="3" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>1</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="3">
+      <c r="E14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="3">
         <v>2.8700000000000002E-3</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="3" t="s">
+      <c r="G14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="10">
-        <v>1</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -1155,25 +1166,22 @@
         <v>1</v>
       </c>
       <c r="B15" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="10" t="s">
         <v>34</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="10">
-        <v>0.85699999999999998</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -1181,49 +1189,52 @@
         <v>1</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="10">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D16" t="s">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="10">
+        <v>1</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16">
+      <c r="F17">
         <f>2.4916949087545</f>
         <v>2.4916949087544999</v>
       </c>
-      <c r="G16" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H16" s="10" t="s">
+      <c r="G17" s="10" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="10">
-        <v>1</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17">
-        <v>0.15</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>14</v>
-      </c>
       <c r="H17" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1231,7 +1242,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>17</v>
@@ -1246,7 +1257,7 @@
         <v>14</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1254,25 +1265,22 @@
         <v>1</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>18</v>
       </c>
       <c r="F19">
-        <v>0.85699999999999998</v>
+        <v>0.15</v>
       </c>
       <c r="G19" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1280,97 +1288,99 @@
         <v>1</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D20" t="s">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="10">
+        <v>1</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="F21">
+        <v>1.0187472612650501</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F20">
-        <v>1.0187472612650501</v>
-      </c>
-      <c r="G20" s="10" t="s">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="7">
+        <v>1</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H20" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="7">
-        <v>1</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="11">
-        <v>0.15</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="9">
-        <v>1</v>
-      </c>
-      <c r="B22" s="9" t="s">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="9">
+        <v>1</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="10">
-        <v>1</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1378,46 +1388,46 @@
         <v>1</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>38</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D24" s="10"/>
       <c r="E24" s="10" t="s">
         <v>18</v>
       </c>
       <c r="F24" s="10">
-        <v>0.85699999999999998</v>
+        <v>0.15</v>
       </c>
       <c r="G24" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H24" s="10"/>
+      <c r="H24" s="10" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
         <v>1</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="F25" s="10">
-        <v>1.4485646330252</v>
+        <v>0.85699999999999998</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="H25" s="10"/>
     </row>
@@ -1426,31 +1436,31 @@
         <v>1</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="10"/>
+        <v>35</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>37</v>
+      </c>
       <c r="E26" s="10" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F26" s="10">
-        <v>0.15</v>
+        <v>1.4485646330252</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>42</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="H26" s="10"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="10">
         <v>1</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>17</v>
@@ -1460,13 +1470,13 @@
         <v>18</v>
       </c>
       <c r="F27" s="10">
-        <v>1.7709999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="G27" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -1474,7 +1484,7 @@
         <v>1</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>17</v>
@@ -1484,13 +1494,13 @@
         <v>18</v>
       </c>
       <c r="F28" s="10">
-        <v>5.0000000000000001E-3</v>
+        <v>1.7709999999999999</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -1498,25 +1508,23 @@
         <v>1</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D29" s="10"/>
       <c r="E29" s="10" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F29" s="10">
-        <v>2.5000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G29" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -1524,23 +1532,25 @@
         <v>1</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="10"/>
+        <v>23</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="E30" s="10" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F30" s="10">
-        <v>5.0000000000000001E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="G30" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -1548,7 +1558,7 @@
         <v>1</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>17</v>
@@ -1558,19 +1568,21 @@
         <v>18</v>
       </c>
       <c r="F31" s="10">
-        <v>6.4610000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G31" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H31" s="10"/>
+      <c r="H31" s="10" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="10">
         <v>1</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>17</v>
@@ -1580,7 +1592,7 @@
         <v>18</v>
       </c>
       <c r="F32" s="10">
-        <v>0.13539000000000001</v>
+        <v>6.4610000000000001E-2</v>
       </c>
       <c r="G32" s="10" t="s">
         <v>14</v>
@@ -1592,7 +1604,7 @@
         <v>1</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>17</v>
@@ -1602,21 +1614,19 @@
         <v>18</v>
       </c>
       <c r="F33" s="10">
-        <v>0.01</v>
+        <v>0.13539000000000001</v>
       </c>
       <c r="G33" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H33" s="10" t="s">
-        <v>48</v>
-      </c>
+      <c r="H33" s="10"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="10">
         <v>1</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>17</v>
@@ -1626,106 +1636,106 @@
         <v>18</v>
       </c>
       <c r="F34" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="10">
+        <v>1</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="10">
         <v>5.4600000000000003E-2</v>
       </c>
-      <c r="G34" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H34" s="10"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="7">
-        <v>1</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F35" s="7">
+      <c r="G35" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" s="10"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="7">
+        <v>1</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="7">
         <v>0.5</v>
       </c>
-      <c r="G35" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H35" s="7" t="s">
+      <c r="G36" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="9">
+        <v>1</v>
+      </c>
+      <c r="B37" s="9" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="9">
-        <v>1</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36" s="12"/>
-      <c r="E36" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F36" s="9">
+      <c r="C37" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="12"/>
+      <c r="E37" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" s="9">
         <v>0.15</v>
       </c>
-      <c r="G36" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="10">
-        <v>1</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D37" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F37" s="10">
-        <v>0.85699999999999998</v>
-      </c>
-      <c r="G37" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H37" s="13"/>
+      <c r="G37" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="10">
         <v>1</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F38">
-        <v>1.7888589662779599</v>
+        <v>18</v>
+      </c>
+      <c r="F38" s="10">
+        <v>0.85699999999999998</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="H38" s="13"/>
     </row>
@@ -1734,30 +1744,31 @@
         <v>1</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>17</v>
+        <v>35</v>
+      </c>
+      <c r="D39" t="s">
+        <v>37</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F39">
-        <v>0.15</v>
+        <v>1.7888589662779599</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H39" s="10" t="s">
-        <v>42</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="H39" s="13"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="10">
         <v>1</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>17</v>
@@ -1766,19 +1777,21 @@
         <v>18</v>
       </c>
       <c r="F40">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="G40" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H40" s="13"/>
+      <c r="H40" s="10" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="10">
         <v>1</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>17</v>
@@ -1787,60 +1800,57 @@
         <v>18</v>
       </c>
       <c r="F41">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="G41" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H41" s="10" t="s">
-        <v>43</v>
-      </c>
+      <c r="H41" s="13"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="10">
         <v>1</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D42" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>18</v>
       </c>
       <c r="F42">
-        <v>0.85699999999999998</v>
+        <v>0.15</v>
       </c>
       <c r="G42" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H42" s="13"/>
+      <c r="H42" s="10" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="10">
         <v>1</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="F43">
-        <v>1.60433994066042</v>
+        <v>0.85699999999999998</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="H43" s="13"/>
     </row>
@@ -1849,30 +1859,31 @@
         <v>1</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>17</v>
+        <v>35</v>
+      </c>
+      <c r="D44" t="s">
+        <v>37</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F44">
-        <v>0.15</v>
+        <v>1.60433994066042</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H44" s="10" t="s">
-        <v>42</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="H44" s="13"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="10">
         <v>1</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>17</v>
@@ -1881,19 +1892,21 @@
         <v>18</v>
       </c>
       <c r="F45">
-        <v>2.5</v>
+        <v>0.15</v>
       </c>
       <c r="G45" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H45" s="13"/>
+      <c r="H45" s="10" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="10">
         <v>1</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C46" s="10" t="s">
         <v>17</v>
@@ -1902,60 +1915,57 @@
         <v>18</v>
       </c>
       <c r="F46">
-        <v>0.15</v>
+        <v>2.5</v>
       </c>
       <c r="G46" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H46" s="10" t="s">
-        <v>43</v>
-      </c>
+      <c r="H46" s="13"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="10">
         <v>1</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D47" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="E47" s="10" t="s">
         <v>18</v>
       </c>
       <c r="F47">
-        <v>0.85699999999999998</v>
+        <v>0.15</v>
       </c>
       <c r="G47" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H47" s="13"/>
+      <c r="H47" s="10" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="10">
         <v>1</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D48" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="F48">
-        <v>1.2448140165275099</v>
+        <v>0.85699999999999998</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="H48" s="13"/>
     </row>
@@ -1964,30 +1974,31 @@
         <v>1</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>17</v>
+        <v>35</v>
+      </c>
+      <c r="D49" t="s">
+        <v>37</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F49">
-        <v>0.15</v>
+        <v>1.2448140165275099</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H49" s="10" t="s">
-        <v>42</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="H49" s="13"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="10">
         <v>1</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C50" s="10" t="s">
         <v>17</v>
@@ -1996,19 +2007,21 @@
         <v>18</v>
       </c>
       <c r="F50">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="G50" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H50" s="13"/>
+      <c r="H50" s="10" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="10">
         <v>1</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>17</v>
@@ -2017,127 +2030,124 @@
         <v>18</v>
       </c>
       <c r="F51">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="G51" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H51" s="10" t="s">
-        <v>43</v>
-      </c>
+      <c r="H51" s="13"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="10">
         <v>1</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D52" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="E52" s="10" t="s">
         <v>18</v>
       </c>
       <c r="F52">
-        <v>0.85699999999999998</v>
+        <v>0.15</v>
       </c>
       <c r="G52" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H52" s="13"/>
+      <c r="H52" s="10" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="10">
         <v>1</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D53" t="s">
+        <v>37</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H53" s="13"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="10">
+        <v>1</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D54" t="s">
+        <v>37</v>
+      </c>
+      <c r="E54" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E53" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F53">
+      <c r="F54">
         <v>1.1659674896013299</v>
       </c>
-      <c r="G53" s="10" t="s">
+      <c r="G54" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H54" s="13"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="7">
+        <v>1</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" s="11"/>
+      <c r="E55" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F55" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H55" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H53" s="13"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="7">
-        <v>1</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D54" s="11"/>
-      <c r="E54" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F54" s="11">
-        <v>0.15</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H54" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="10">
-        <v>1</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F55" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="G55" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H55" s="10"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="10">
         <v>1</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>59</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D56" s="10"/>
       <c r="E56" s="10" t="s">
         <v>18</v>
       </c>
       <c r="F56" s="10">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="G56" s="10" t="s">
         <v>14</v>
@@ -2149,22 +2159,22 @@
         <v>1</v>
       </c>
       <c r="B57" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C57" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="D57" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D57" s="10" t="s">
-        <v>59</v>
-      </c>
       <c r="E57" s="10" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="F57" s="10">
-        <v>45</v>
+        <v>0.8</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="H57" s="10"/>
     </row>
@@ -2173,20 +2183,22 @@
         <v>1</v>
       </c>
       <c r="B58" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C58" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C58" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D58" s="10"/>
+      <c r="D58" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E58" s="10" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="F58" s="10">
-        <v>0.2</v>
+        <v>45</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="H58" s="10"/>
     </row>
@@ -2195,64 +2207,64 @@
         <v>1</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="D59" s="10"/>
       <c r="E59" s="10" t="s">
         <v>18</v>
       </c>
       <c r="F59" s="10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G59" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H59" s="10"/>
     </row>
-    <row r="60" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="10">
         <v>1</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D60" s="10"/>
       <c r="E60" s="10" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="F60" s="10">
-        <v>22.544</v>
+        <v>0.1</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="H60" s="10"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" ht="19" x14ac:dyDescent="0.2">
       <c r="A61" s="10">
         <v>1</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="D61" s="10"/>
       <c r="E61" s="10" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="F61" s="10">
-        <v>0.4</v>
+        <v>22.544</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="H61" s="10"/>
     </row>
@@ -2261,64 +2273,64 @@
         <v>1</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="D62" s="10"/>
       <c r="E62" s="10" t="s">
         <v>18</v>
       </c>
       <c r="F62" s="10">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="G62" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H62" s="10"/>
     </row>
-    <row r="63" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="10">
         <v>1</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D63" s="10"/>
       <c r="E63" s="10" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="F63" s="10">
-        <v>31.376799999999999</v>
+        <v>0.1</v>
       </c>
       <c r="G63" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H63" s="10"/>
+    </row>
+    <row r="64" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+      <c r="A64" s="10">
+        <v>1</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C64" s="10" t="s">
         <v>64</v>
-      </c>
-      <c r="H63" s="10"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="10">
-        <v>1</v>
-      </c>
-      <c r="B64" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>17</v>
       </c>
       <c r="D64" s="10"/>
       <c r="E64" s="10" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="F64" s="10">
-        <v>0.2</v>
+        <v>31.376799999999999</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="H64" s="10"/>
     </row>
@@ -2327,85 +2339,85 @@
         <v>1</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="D65" s="10"/>
       <c r="E65" s="10" t="s">
         <v>18</v>
       </c>
       <c r="F65" s="10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G65" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H65" s="10"/>
     </row>
-    <row r="66" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="10">
         <v>1</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D66" s="10"/>
       <c r="E66" s="10" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="F66" s="10">
-        <v>31.5123</v>
+        <v>0.1</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="H66" s="10"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" ht="19" x14ac:dyDescent="0.2">
       <c r="A67" s="10">
         <v>1</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="D67" s="10"/>
       <c r="E67" s="10" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="F67" s="10">
+        <v>31.5123</v>
+      </c>
+      <c r="G67" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H67" s="10"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="10">
+        <v>1</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F68" s="10">
         <f>0.2-0.005</f>
         <v>0.19500000000000001</v>
       </c>
-      <c r="G67" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H67" s="10"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="10">
-        <v>1</v>
-      </c>
-      <c r="B68" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D68" s="10"/>
-      <c r="E68" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F68" s="10">
-        <v>0.01</v>
-      </c>
       <c r="G68" s="10" t="s">
         <v>14</v>
       </c>
@@ -2416,7 +2428,7 @@
         <v>1</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C69" s="10" t="s">
         <v>17</v>
@@ -2426,78 +2438,78 @@
         <v>18</v>
       </c>
       <c r="F69" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="G69" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H69" s="10"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="10">
+        <v>1</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F70" s="10">
         <f>0.2-0.005</f>
         <v>0.19500000000000001</v>
       </c>
-      <c r="G69" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H69" s="10"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="10">
-        <v>1</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D70" s="10"/>
-      <c r="E70" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F70" s="10">
-        <v>0.1</v>
-      </c>
       <c r="G70" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H70" s="10"/>
     </row>
-    <row r="71" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="10">
         <v>1</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D71" s="10"/>
       <c r="E71" s="10" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="F71" s="10">
-        <f>F66</f>
-        <v>31.5123</v>
+        <v>0.1</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="H71" s="10"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" ht="19" x14ac:dyDescent="0.2">
       <c r="A72" s="10">
         <v>1</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="D72" s="10"/>
       <c r="E72" s="10" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="F72" s="10">
-        <v>0.2</v>
+        <f>F67</f>
+        <v>31.5123</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="H72" s="10"/>
     </row>
@@ -2506,65 +2518,65 @@
         <v>1</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="D73" s="10"/>
       <c r="E73" s="10" t="s">
         <v>18</v>
       </c>
       <c r="F73" s="10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G73" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H73" s="10"/>
     </row>
-    <row r="74" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="10">
         <v>1</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D74" s="10"/>
       <c r="E74" s="10" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="F74" s="10">
-        <f>F63</f>
-        <v>31.376799999999999</v>
+        <v>0.1</v>
       </c>
       <c r="G74" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H74" s="10"/>
+    </row>
+    <row r="75" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+      <c r="A75" s="10">
+        <v>1</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C75" s="10" t="s">
         <v>64</v>
-      </c>
-      <c r="H74" s="10"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="10">
-        <v>1</v>
-      </c>
-      <c r="B75" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>17</v>
       </c>
       <c r="D75" s="10"/>
       <c r="E75" s="10" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="F75" s="10">
-        <v>0.4</v>
+        <f>F64</f>
+        <v>31.376799999999999</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="H75" s="10"/>
     </row>
@@ -2573,65 +2585,65 @@
         <v>1</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="D76" s="10"/>
       <c r="E76" s="10" t="s">
         <v>18</v>
       </c>
       <c r="F76" s="10">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="G76" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H76" s="10"/>
     </row>
-    <row r="77" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="10">
         <v>1</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D77" s="10"/>
       <c r="E77" s="10" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="F77" s="10">
-        <f>F60</f>
-        <v>22.544</v>
+        <v>0.1</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="H77" s="10"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" ht="19" x14ac:dyDescent="0.2">
       <c r="A78" s="10">
         <v>1</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="D78" s="10"/>
       <c r="E78" s="10" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="F78" s="10">
-        <v>0.2</v>
+        <f>F61</f>
+        <v>22.544</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="H78" s="10"/>
     </row>
@@ -2640,19 +2652,17 @@
         <v>1</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D79" s="10" t="s">
-        <v>59</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D79" s="10"/>
       <c r="E79" s="10" t="s">
         <v>18</v>
       </c>
       <c r="F79" s="10">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="G79" s="10" t="s">
         <v>14</v>
@@ -2664,22 +2674,22 @@
         <v>1</v>
       </c>
       <c r="B80" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C80" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="D80" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D80" s="10" t="s">
-        <v>59</v>
-      </c>
       <c r="E80" s="10" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="F80" s="10">
-        <v>45</v>
+        <v>0.8</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="H80" s="10"/>
     </row>
@@ -2688,44 +2698,68 @@
         <v>1</v>
       </c>
       <c r="B81" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C81" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C81" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D81" s="10"/>
+      <c r="D81" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E81" s="10" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="F81" s="10">
+        <v>45</v>
+      </c>
+      <c r="G81" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H81" s="10"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" s="10">
+        <v>1</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F82" s="10">
         <v>0.2</v>
       </c>
-      <c r="G81" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H81" s="10"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="7">
-        <v>1</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F82" s="7">
+      <c r="G82" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H82" s="10"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" s="7">
+        <v>1</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F83" s="7">
         <v>2</v>
       </c>
-      <c r="G82" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H82" s="7"/>
+      <c r="G83" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H83" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
